--- a/biology/Zoologie/Craciformes/Craciformes.xlsx
+++ b/biology/Zoologie/Craciformes/Craciformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Craciformes sont un ordre d'oiseaux dans la classification de Sibley et Monroe qui sont traditionnellement classés sous l'ordre des Galliformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>famille Cracidae - oiseaux de la zone néotropicale tels les ortalides, les hoccos et les pénélopes
 famille Megapodiidae - oiseaux de la zone australasienne, tels le leipoa, le maléo et les talégalles</t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Richard Bowdler Sharpe, A review of recent attempts to classify birds; an address delivered before the Second international ornithological congress on the 18th of May, 1891,  (œuvre littéraire), 1891, [lire en ligne]</t>
         </is>
